--- a/config_11.10/shoping_config.xlsx
+++ b/config_11.10/shoping_config.xlsx
@@ -7138,11 +7138,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>5,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9939,10 +9939,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H432" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D441" sqref="D441"/>
+      <selection pane="bottomRight" activeCell="V443" sqref="V443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -29336,7 +29336,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>627</v>
+        <v>1634</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -38087,7 +38087,7 @@
         <v>1628</v>
       </c>
       <c r="V444" s="56" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="W444" s="56">
         <v>9999999</v>
